--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowHeight="19845" tabRatio="599"/>
+    <workbookView windowWidth="27945" windowHeight="29175" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -144,17 +144,6 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -664,19 +653,28 @@
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,161 +683,155 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,16 +841,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,9 +978,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G32" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G32" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G35" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G35" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="Key2" dataDxfId="1"/>
@@ -1289,75 +1288,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2666666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.5428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.1428571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="16.2666666666667" style="3"/>
+    <col min="1" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="4" width="22.5428571428571" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7142857142857" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="16.2666666666667" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:6">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1380,7 +1379,7 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1400,7 +1399,7 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1420,7 +1419,7 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1440,7 +1439,7 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1463,7 +1462,7 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1483,7 +1482,7 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1504,13 +1503,13 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -1525,422 +1524,481 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>1001</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>300</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>1002</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <v>200</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>2001</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
         <v>300</v>
       </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>2002</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>200</v>
       </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>3001</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
         <v>300</v>
       </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>3002</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>200</v>
       </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>1003</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>400</v>
       </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>1004</v>
       </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
         <v>500</v>
       </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>1005</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
         <v>600</v>
       </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6"/>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>1006</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
         <v>700</v>
       </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6"/>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>1007</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
         <v>800</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6"/>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>2003</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
         <v>400</v>
       </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>2004</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
         <v>500</v>
       </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>2005</v>
       </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
         <v>600</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>2006</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
         <v>700</v>
       </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>2007</v>
       </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
         <v>800</v>
       </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7">
         <v>25</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>3003</v>
       </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
         <v>400</v>
       </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6"/>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7">
         <v>26</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>3004</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
         <v>500</v>
       </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>3005</v>
       </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
         <v>600</v>
       </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6"/>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>3006</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
         <v>700</v>
       </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6">
         <v>29</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>3007</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
         <v>800</v>
       </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6"/>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:7">
+      <c r="A33" s="8">
+        <v>4</v>
+      </c>
+      <c r="B33" s="9">
+        <v>30</v>
+      </c>
+      <c r="C33" s="9">
+        <v>8001</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:7">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9">
+        <v>8002</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:7">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9">
+        <v>32</v>
+      </c>
+      <c r="C35" s="9">
+        <v>8003</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
